--- a/biology/Botanique/Empetrum/Empetrum.xlsx
+++ b/biology/Botanique/Empetrum/Empetrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Empetrum est un genre de plante à fleurs de la famille des Empétracées selon la classification classique, ou, selon la classification phylogénétique, de celle des Éricacées. Le genre Empetrum comporte environ 3 espèces.
 Ce sont des sous-arbrisseaux de type couvre-sol avec de petites feuilles persistantes à aiguilles. Leurs petites fleurs sont peu spectaculaires. Leurs fruits sont des drupes qui ressemblent à des airelles.
@@ -513,7 +525,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux espèces boréales comportant diverses sous-espèces et variétés sont reconnues actuellement :
 Empetrum nigrum L., la camarine noire
@@ -548,7 +562,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits sont comestibles. Les amérindiens tels les Selknams ou les Yamanas en consommaient. Aussi aujourd'hui les fruits sont cueillis pour en faire des gâteaux mais surtout de la confiture.
 </t>
